--- a/trunk/Requerimientos/CUS 46 - Facturar Pago de Tarifa Aeroportuario por Pasaje de Aerolínea/Control.xlsx
+++ b/trunk/Requerimientos/CUS 46 - Facturar Pago de Tarifa Aeroportuario por Pasaje de Aerolínea/Control.xlsx
@@ -11,15 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Nombre</t>
   </si>
@@ -220,13 +217,19 @@
   </si>
   <si>
     <t>Acumulativo</t>
+  </si>
+  <si>
+    <t>Faltante</t>
+  </si>
+  <si>
+    <t>Pocentaje Avanzado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +268,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,8 +395,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -409,39 +420,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -467,7 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,12 +456,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,7 +530,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8099518810148729E-2"/>
+          <c:y val="2.8252405949256341E-2"/>
+          <c:w val="0.64878499562554681"/>
+          <c:h val="0.68921660834062404"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -534,10 +560,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -555,10 +581,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -632,11 +658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="29267072"/>
-        <c:axId val="29268608"/>
+        <c:axId val="92904064"/>
+        <c:axId val="92922240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29267072"/>
+        <c:axId val="92904064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29268608"/>
+        <c:crossAx val="92922240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -654,7 +680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29268608"/>
+        <c:axId val="92922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,7 +691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29267072"/>
+        <c:crossAx val="92904064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -722,19 +748,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1024,22 +1037,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
@@ -1051,10 +1065,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="4">
         <v>18</v>
       </c>
@@ -1066,193 +1080,189 @@
       <c r="I2" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="28" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="31">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="16">
         <v>3</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="15">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="31">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="16">
         <v>3</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="31">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="16">
         <v>3</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="31">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="16">
         <v>2</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="31">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="16">
         <v>2</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="15">
         <v>6</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="31">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="16">
         <v>1</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="15">
         <v>7</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="6">
         <v>1</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>8</v>
-      </c>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="15">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="15">
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="6">
         <v>2</v>
       </c>
@@ -1262,717 +1272,773 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="15">
         <v>10</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="31">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="16">
         <v>10</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="15">
         <v>11</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="31">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="16">
         <v>10</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="31">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="16">
         <v>9</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="15">
         <v>13</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="31">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="16">
         <v>2.5</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="15">
         <v>14</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="31">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="16">
         <v>2.5</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="15">
         <v>15</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="31">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="16">
         <v>1</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="15">
         <v>16</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="31">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="16">
         <v>3</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="15">
         <v>17</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="31">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="16">
         <v>4</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="15">
         <v>18</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="31">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="16">
         <v>3</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="15">
         <v>19</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="31">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="16">
         <v>2</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
+      <c r="A25" s="15">
         <v>20</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="31">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="16">
         <v>3</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="15">
         <v>21</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="31">
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="16">
         <v>2</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="A27" s="15">
         <v>22</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="31">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="16">
         <v>1</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="15">
         <v>23</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="31">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="16">
         <v>1</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="A29" s="15">
         <v>24</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="31">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="16">
         <v>2</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="30">
+      <c r="A30" s="15">
         <v>25</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="31">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="16">
         <v>1</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="A31" s="15">
         <v>26</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="31">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="16">
         <v>1</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10">
         <f>SUM(G6:G31)</f>
         <v>76</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="38" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="41">
+      <c r="B40" s="39"/>
+      <c r="C40" s="25">
         <f>SUM(C41:C66)</f>
+        <v>71</v>
+      </c>
+      <c r="D40" s="41">
         <v>76</v>
       </c>
-      <c r="D40" s="24">
-        <v>76</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="39">
+      <c r="B41" s="39"/>
+      <c r="C41" s="23">
+        <v>0</v>
+      </c>
+      <c r="D41" s="41">
+        <f>C41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="23">
         <v>3</v>
       </c>
-      <c r="D41" s="24">
-        <f>C41</f>
+      <c r="D42" s="41">
+        <f>D41+C42</f>
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="39">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="39"/>
+      <c r="C43" s="23">
         <v>3</v>
       </c>
-      <c r="D42" s="24">
-        <f>D41+C42</f>
+      <c r="D43" s="41">
+        <f t="shared" ref="D43:D66" si="0">D42+C43</f>
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="39">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="23">
+        <v>2</v>
+      </c>
+      <c r="D44" s="41">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="23">
+        <v>2</v>
+      </c>
+      <c r="D45" s="41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="23">
+        <v>1</v>
+      </c>
+      <c r="D46" s="41">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="39"/>
+      <c r="C47" s="24">
+        <v>0</v>
+      </c>
+      <c r="D47" s="41">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="24">
+        <v>0</v>
+      </c>
+      <c r="D48" s="41">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="24">
+        <v>2</v>
+      </c>
+      <c r="D49" s="41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="23">
+        <v>10</v>
+      </c>
+      <c r="D50" s="41">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="23">
+        <v>10</v>
+      </c>
+      <c r="D51" s="41">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="23">
+        <v>9</v>
+      </c>
+      <c r="D52" s="41">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="D53" s="41">
+        <f t="shared" si="0"/>
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="D54" s="41">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="23">
+        <v>1</v>
+      </c>
+      <c r="D55" s="41">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="23">
         <v>3</v>
       </c>
-      <c r="D43" s="24">
-        <f t="shared" ref="D43:D66" si="0">D42+C43</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="39">
+      <c r="D56" s="41">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="23">
+        <v>4</v>
+      </c>
+      <c r="D57" s="41">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="23">
+        <v>3</v>
+      </c>
+      <c r="D58" s="41">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="23">
         <v>2</v>
       </c>
-      <c r="D44" s="24">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="39">
+      <c r="D59" s="41">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="39"/>
+      <c r="C60" s="23">
+        <v>3</v>
+      </c>
+      <c r="D60" s="41">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="23">
         <v>2</v>
       </c>
-      <c r="D45" s="24">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="39">
+      <c r="D61" s="41">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="39"/>
+      <c r="C62" s="23">
         <v>1</v>
       </c>
-      <c r="D46" s="24">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="40">
+      <c r="D62" s="41">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="39"/>
+      <c r="C63" s="23">
         <v>1</v>
       </c>
-      <c r="D47" s="24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="40">
+      <c r="D63" s="41">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="23">
+        <v>2</v>
+      </c>
+      <c r="D64" s="41">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="23">
         <v>1</v>
       </c>
-      <c r="D48" s="24">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="40">
-        <v>2</v>
-      </c>
-      <c r="D49" s="24">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="39">
-        <v>10</v>
-      </c>
-      <c r="D50" s="24">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="39">
-        <v>10</v>
-      </c>
-      <c r="D51" s="24">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="39">
-        <v>9</v>
-      </c>
-      <c r="D52" s="24">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="D53" s="24">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="D54" s="24">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="39">
+      <c r="D65" s="41">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="39"/>
+      <c r="C66" s="23">
         <v>1</v>
       </c>
-      <c r="D55" s="24">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="39">
-        <v>3</v>
-      </c>
-      <c r="D56" s="24">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="39">
-        <v>4</v>
-      </c>
-      <c r="D57" s="24">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="39">
-        <v>3</v>
-      </c>
-      <c r="D58" s="24">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="39">
-        <v>2</v>
-      </c>
-      <c r="D59" s="24">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="39">
-        <v>3</v>
-      </c>
-      <c r="D60" s="24">
-        <f t="shared" si="0"/>
+      <c r="D66" s="41">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="39"/>
+      <c r="C67" s="25">
+        <v>0</v>
+      </c>
+      <c r="D67" s="41"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="39">
-        <v>2</v>
-      </c>
-      <c r="D61" s="24">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="39">
-        <v>1</v>
-      </c>
-      <c r="D62" s="24">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="39">
-        <v>1</v>
-      </c>
-      <c r="D63" s="24">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="39">
-        <v>2</v>
-      </c>
-      <c r="D64" s="24">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="39">
-        <v>1</v>
-      </c>
-      <c r="D65" s="24">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="39">
-        <v>1</v>
-      </c>
-      <c r="D66" s="24">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="42">
-        <v>0</v>
-      </c>
-      <c r="D67" s="22"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="42">
+        <f>(100 - ((D66*100)/D40))*0.01</f>
+        <v>6.578947368421055E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="51">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
@@ -1981,23 +2047,10 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
